--- a/ATT_Sample_Question.xlsx
+++ b/ATT_Sample_Question.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sumed\Desktop\Code_It\PYP_AAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6380957-3E18-469D-8827-D63DC5D59518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF788FBE-DFBE-4471-933A-A49349327679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B823F962-0929-46D4-B6BD-3CBD787FDDA7}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Part-1</t>
   </si>
@@ -45,30 +45,6 @@
     <t>Part-3</t>
   </si>
   <si>
-    <t>Find the area of a</t>
-  </si>
-  <si>
-    <t>Find the perimeter of a</t>
-  </si>
-  <si>
-    <t>Find the area moment of inertia of a</t>
-  </si>
-  <si>
-    <t>Also find the perimeter of a square with the same area.</t>
-  </si>
-  <si>
-    <t>Also find the area of a square with the same perimeter.</t>
-  </si>
-  <si>
-    <t>circle of radius 6 mm.</t>
-  </si>
-  <si>
-    <t>rectangle with width 3 mm and depth 6 mm.</t>
-  </si>
-  <si>
-    <t>trapezium with the prallel of 3 mm and 6 mm being seperated by 4 mm.</t>
-  </si>
-  <si>
     <t>Part-4</t>
   </si>
   <si>
@@ -93,32 +69,35 @@
     <t>of length 6800 mm,</t>
   </si>
   <si>
-    <t>Given: E= 200GPa</t>
-  </si>
-  <si>
-    <t>Given: E = 189 Gpa</t>
-  </si>
-  <si>
     <t>with a UDL of 6 kN/m acting along the complete length of the beam.</t>
   </si>
   <si>
     <t>with a UVL of maxium load/length of 5kN/m acting along the complete length of the beam.</t>
+  </si>
+  <si>
+    <t>Part-6</t>
+  </si>
+  <si>
+    <t>Also show the calculations for the shear force and bending moments for this arrangement.</t>
+  </si>
+  <si>
+    <t>Given: E= 200GPa.</t>
+  </si>
+  <si>
+    <t>Given: E = 189 Gpa.</t>
+  </si>
+  <si>
+    <t>Also find out the point where the maximum bending moment occurs.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -459,23 +438,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9B8A65C-4BA0-41B6-9C05-9BF6265BF222}">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF7418A0-C1F9-4EF2-9FBE-FD63ED49B5E5}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.88671875" customWidth="1"/>
-    <col min="2" max="2" width="65.6640625" customWidth="1"/>
-    <col min="3" max="3" width="49.33203125" customWidth="1"/>
-    <col min="4" max="4" width="78.44140625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="78.21875" customWidth="1"/>
+    <col min="5" max="5" width="94.44140625" customWidth="1"/>
+    <col min="6" max="6" width="74.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,90 +465,57 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
         <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>